--- a/scalc/config/cfg_ufd/ufd_partial_derivertive_1580.xlsx
+++ b/scalc/config/cfg_ufd/ufd_partial_derivertive_1580.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\config\cfg_ufd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digestion\tiny_ssu_calc\scalc\config\cfg_ufd\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1859" yWindow="0" windowWidth="20665" windowHeight="10069"/>
+    <workbookView xWindow="1860" yWindow="0" windowWidth="20664" windowHeight="10068"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -392,21 +392,21 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="10.8984375" customWidth="1"/>
-    <col min="4" max="4" width="10.19921875" customWidth="1"/>
-    <col min="5" max="5" width="12.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.69921875" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" customWidth="1"/>
+    <col min="3" max="3" width="10.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.21875" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="11.59765625" customWidth="1"/>
-    <col min="10" max="10" width="11.8984375" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
